--- a/xlsx/伺服器_intext.xlsx
+++ b/xlsx/伺服器_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>伺服器</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E9%8B%92%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
   </si>
   <si>
-    <t>刀鋒伺服器</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_伺服器</t>
+    <t>刀锋伺服器</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_伺服器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE</t>
   </si>
   <si>
-    <t>戴爾</t>
+    <t>戴尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BB%B6%E6%9C%8D%E5%8A%A1%E5%99%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E7%AB%AF</t>
   </si>
   <si>
-    <t>終端</t>
+    <t>终端</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E6%88%B7%E7%AB%AF</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E5%84%B2%E5%AD%98%E8%A8%AD%E5%82%99</t>
   </si>
   <si>
-    <t>網路儲存設備</t>
+    <t>网路储存设备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Novell</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
   </si>
   <si>
-    <t>網頁伺服器</t>
+    <t>网页伺服器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lighttpd</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
   </si>
   <si>
-    <t>應用程式伺服器</t>
+    <t>应用程式伺服器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WebLogic</t>
@@ -455,9 +455,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Windows_Internet_Name_Service</t>
   </si>
   <si>
@@ -497,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%99%A8%E6%A2%B0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>網絡器械公司</t>
+    <t>网络器械公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E8%AE%BE%E5%A4%87</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>桌上型電腦</t>
+    <t>桌上型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E7%AB%99</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%AB%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電競電腦</t>
+    <t>电竞电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E7%94%B5%E8%84%91</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%AB%94%E6%A9%9F</t>
   </si>
   <si>
-    <t>一體機</t>
+    <t>一体机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Small_form_factor</t>
@@ -605,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E4%BD%A0%E6%A1%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>迷你桌上型電腦</t>
+    <t>迷你桌上型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%86%E8%A8%98%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>筆記型電腦</t>
+    <t>笔记型电脑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Desktop_replacement_computer</t>
@@ -641,13 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%A5%B5%E8%87%B4%E7%AD%86%E9%9B%BB</t>
   </si>
   <si>
-    <t>超極致筆電</t>
+    <t>超极致笔电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BF%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>平板電腦</t>
+    <t>平板电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_tablet</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>功能型手機</t>
+    <t>功能型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E6%89%8B%E6%9C%BA</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%94%9C%E5%BC%8F%E5%AA%92%E9%AB%94%E6%92%AD%E6%94%BE%E5%99%A8</t>
   </si>
   <si>
-    <t>可攜式媒體播放器</t>
+    <t>可携式媒体播放器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E5%99%A8</t>
@@ -755,13 +752,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%A9%BF%E6%88%B4%E5%BC%8F%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>可穿戴式電腦</t>
+    <t>可穿戴式电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E9%8C%B6</t>
   </si>
   <si>
-    <t>手錶</t>
+    <t>手表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Calculator_watch</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E9%8C%B6</t>
   </si>
   <si>
-    <t>智慧型手錶</t>
+    <t>智慧型手表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Virtual_retinal_display</t>
@@ -785,19 +782,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%88%B4%E5%BC%8F%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>頭戴式顯示器</t>
+    <t>头戴式显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%AC%E9%A0%AD%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>抬頭顯示器</t>
+    <t>抬头显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子遊戲機</t>
+    <t>电子游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E6%9C%BA</t>
@@ -827,19 +824,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%8C%E4%B8%8A%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>掌上遊戲機</t>
+    <t>掌上游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>智能電視</t>
+    <t>智能电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E5%8A%87%E9%99%A2%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>家庭劇院個人電腦</t>
+    <t>家庭剧院个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E9%A1%B6%E7%9B%92</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%AA%92%E9%AB%94%E6%A9%9F%E5%8F%B0</t>
   </si>
   <si>
-    <t>多媒體機台</t>
+    <t>多媒体机台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A8%E6%9F%9C%E5%91%98%E6%9C%BA</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%9B%B8%E9%96%B1%E8%AE%80%E5%99%A8</t>
   </si>
   <si>
-    <t>電子書閱讀器</t>
+    <t>电子书阅读器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Portable_data_terminal</t>
@@ -923,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E5%BE%AE%E5%A1%B5</t>
   </si>
   <si>
-    <t>智能微塵</t>
+    <t>智能微尘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E6%84%9F%E6%B8%AC%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線感測網路</t>
+    <t>无线感测网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1%E5%99%A8</t>
@@ -3397,7 +3394,7 @@
         <v>145</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3423,10 +3420,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3452,10 +3449,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3510,10 +3507,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3539,10 +3536,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3568,10 +3565,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3597,10 +3594,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3626,10 +3623,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3655,10 +3652,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>19</v>
@@ -3684,10 +3681,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3713,10 +3710,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3742,10 +3739,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3771,10 +3768,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3800,10 +3797,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3829,10 +3826,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3858,10 +3855,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3887,10 +3884,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3916,10 +3913,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3945,10 +3942,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3974,10 +3971,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4003,10 +4000,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4032,10 +4029,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4061,10 +4058,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4090,10 +4087,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4119,10 +4116,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4148,10 +4145,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4177,10 +4174,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4206,10 +4203,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4235,10 +4232,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4264,10 +4261,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4293,10 +4290,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4322,10 +4319,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4351,10 +4348,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4380,10 +4377,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4409,10 +4406,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4438,10 +4435,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4467,10 +4464,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4496,10 +4493,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4525,10 +4522,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4554,10 +4551,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4583,10 +4580,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4612,10 +4609,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4641,10 +4638,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4670,10 +4667,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4699,10 +4696,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4728,10 +4725,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4757,10 +4754,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4786,10 +4783,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4815,10 +4812,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4844,10 +4841,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4873,10 +4870,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4902,10 +4899,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4931,10 +4928,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4960,10 +4957,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4989,10 +4986,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5018,10 +5015,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5047,10 +5044,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5076,10 +5073,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5105,10 +5102,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5134,10 +5131,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5163,10 +5160,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5192,10 +5189,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5221,10 +5218,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5250,10 +5247,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5279,10 +5276,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5308,10 +5305,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5337,10 +5334,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5366,10 +5363,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5395,10 +5392,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5424,10 +5421,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5453,10 +5450,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5482,10 +5479,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5511,10 +5508,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5540,10 +5537,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5569,10 +5566,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5598,10 +5595,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5627,10 +5624,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5656,10 +5653,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5685,10 +5682,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5714,10 +5711,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5743,10 +5740,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -5772,10 +5769,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
